--- a/docs/ODK-CEN/fichiers/suivis_mailles_bota/suivi_maille_bota.xlsx
+++ b/docs/ODK-CEN/fichiers/suivis_mailles_bota/suivi_maille_bota.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -2085,7 +2085,7 @@
   <dimension ref="A1:AR174"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
@@ -6331,7 +6331,7 @@
       <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.99"/>
@@ -6702,14 +6702,14 @@
   </sheetPr>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="47" width="32.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="69.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="77.26"/>
   </cols>
   <sheetData>
     <row r="1" s="51" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6890,11 +6890,11 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="53.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.14"/>
